--- a/LSA Data Dictionary FY2024.xlsx
+++ b/LSA Data Dictionary FY2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{4C794D6F-E862-4F2C-98E1-131F5B0D33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F7648DF-F483-40E6-B16B-0660982D1918}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4C794D6F-E862-4F2C-98E1-131F5B0D33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329C507A-3AFF-4D8D-B7E7-E4B7A338D72A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7455" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
@@ -4808,7 +4808,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4883,6 +4883,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -4906,6 +4913,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13278,7 +13289,8 @@
   <cols>
     <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="95.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -19987,7 +19999,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="480" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>28</v>
       </c>
@@ -20001,7 +20013,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="481" spans="1:4" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>28</v>
       </c>
@@ -21456,7 +21468,7 @@
       <c r="D584" t="s">
         <v>413</v>
       </c>
-      <c r="N584" s="22"/>
+      <c r="N584" s="29"/>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A585">
@@ -21471,7 +21483,7 @@
       <c r="D585" t="s">
         <v>367</v>
       </c>
-      <c r="N585" s="22"/>
+      <c r="N585" s="29"/>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A586">
@@ -21486,7 +21498,7 @@
       <c r="D586" t="s">
         <v>368</v>
       </c>
-      <c r="N586" s="22"/>
+      <c r="N586" s="29"/>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A587">
@@ -21501,7 +21513,7 @@
       <c r="D587" t="s">
         <v>369</v>
       </c>
-      <c r="N587" s="22"/>
+      <c r="N587" s="29"/>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A588">
@@ -21516,7 +21528,7 @@
       <c r="D588" t="s">
         <v>370</v>
       </c>
-      <c r="N588" s="22"/>
+      <c r="N588" s="29"/>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A589">
@@ -21531,7 +21543,7 @@
       <c r="D589" t="s">
         <v>371</v>
       </c>
-      <c r="N589" s="22"/>
+      <c r="N589" s="29"/>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A590">
@@ -21546,7 +21558,7 @@
       <c r="D590" t="s">
         <v>372</v>
       </c>
-      <c r="N590" s="22"/>
+      <c r="N590" s="29"/>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A591">
@@ -21561,7 +21573,7 @@
       <c r="D591" t="s">
         <v>373</v>
       </c>
-      <c r="N591" s="22"/>
+      <c r="N591" s="29"/>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A592">
@@ -21576,7 +21588,7 @@
       <c r="D592" t="s">
         <v>374</v>
       </c>
-      <c r="N592" s="22"/>
+      <c r="N592" s="29"/>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A593">
@@ -21591,7 +21603,7 @@
       <c r="D593" t="s">
         <v>375</v>
       </c>
-      <c r="N593" s="22"/>
+      <c r="N593" s="29"/>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A594">
@@ -22138,7 +22150,7 @@
       <c r="D632" t="s">
         <v>1151</v>
       </c>
-      <c r="F632" s="22"/>
+      <c r="F632" s="29"/>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A633">
@@ -22153,7 +22165,7 @@
       <c r="D633" t="s">
         <v>1152</v>
       </c>
-      <c r="F633" s="22"/>
+      <c r="F633" s="29"/>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A634">
@@ -22168,7 +22180,7 @@
       <c r="D634" t="s">
         <v>1153</v>
       </c>
-      <c r="F634" s="22"/>
+      <c r="F634" s="29"/>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A635">
@@ -22183,7 +22195,7 @@
       <c r="D635" t="s">
         <v>1154</v>
       </c>
-      <c r="F635" s="22"/>
+      <c r="F635" s="29"/>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A636">
@@ -22198,7 +22210,7 @@
       <c r="D636" t="s">
         <v>1155</v>
       </c>
-      <c r="F636" s="22"/>
+      <c r="F636" s="29"/>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A637">
@@ -22213,7 +22225,7 @@
       <c r="D637" t="s">
         <v>1156</v>
       </c>
-      <c r="F637" s="22"/>
+      <c r="F637" s="29"/>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A638">
@@ -22228,7 +22240,7 @@
       <c r="D638" t="s">
         <v>1157</v>
       </c>
-      <c r="F638" s="22"/>
+      <c r="F638" s="29"/>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A639">
@@ -22243,7 +22255,7 @@
       <c r="D639" t="s">
         <v>1158</v>
       </c>
-      <c r="F639" s="22"/>
+      <c r="F639" s="29"/>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A640">
@@ -22258,7 +22270,7 @@
       <c r="D640" t="s">
         <v>1159</v>
       </c>
-      <c r="F640" s="22"/>
+      <c r="F640" s="29"/>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A641">
@@ -22273,7 +22285,7 @@
       <c r="D641" t="s">
         <v>1160</v>
       </c>
-      <c r="F641" s="22"/>
+      <c r="F641" s="29"/>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A642">
@@ -22288,7 +22300,7 @@
       <c r="D642" t="s">
         <v>1161</v>
       </c>
-      <c r="F642" s="22"/>
+      <c r="F642" s="29"/>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A643">
@@ -22303,7 +22315,7 @@
       <c r="D643" t="s">
         <v>1162</v>
       </c>
-      <c r="F643" s="22"/>
+      <c r="F643" s="29"/>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A644">
@@ -22318,7 +22330,7 @@
       <c r="D644" t="s">
         <v>1163</v>
       </c>
-      <c r="F644" s="22"/>
+      <c r="F644" s="29"/>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A645">
@@ -22333,7 +22345,7 @@
       <c r="D645" t="s">
         <v>1164</v>
       </c>
-      <c r="F645" s="22"/>
+      <c r="F645" s="29"/>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A646">
@@ -22348,7 +22360,7 @@
       <c r="D646" t="s">
         <v>1165</v>
       </c>
-      <c r="F646" s="22"/>
+      <c r="F646" s="29"/>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A647">
@@ -22363,7 +22375,7 @@
       <c r="D647" t="s">
         <v>1166</v>
       </c>
-      <c r="F647" s="22"/>
+      <c r="F647" s="29"/>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A648">
@@ -22378,7 +22390,7 @@
       <c r="D648" t="s">
         <v>1167</v>
       </c>
-      <c r="F648" s="22"/>
+      <c r="F648" s="29"/>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A649">
@@ -22393,7 +22405,7 @@
       <c r="D649" t="s">
         <v>1168</v>
       </c>
-      <c r="F649" s="22"/>
+      <c r="F649" s="29"/>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A650">
@@ -22408,7 +22420,7 @@
       <c r="D650" t="s">
         <v>1169</v>
       </c>
-      <c r="F650" s="22"/>
+      <c r="F650" s="29"/>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A651">
@@ -22423,7 +22435,7 @@
       <c r="D651" t="s">
         <v>1170</v>
       </c>
-      <c r="F651" s="22"/>
+      <c r="F651" s="29"/>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A652">
@@ -22438,7 +22450,7 @@
       <c r="D652" t="s">
         <v>1171</v>
       </c>
-      <c r="F652" s="22"/>
+      <c r="F652" s="29"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A653">
@@ -22467,7 +22479,7 @@
       <c r="D654" t="s">
         <v>382</v>
       </c>
-      <c r="F654" s="22"/>
+      <c r="F654" s="29"/>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A655">
@@ -22566,7 +22578,7 @@
       <c r="D661" t="s">
         <v>1175</v>
       </c>
-      <c r="F661" s="22"/>
+      <c r="F661" s="29"/>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A662">
@@ -22581,7 +22593,7 @@
       <c r="D662" t="s">
         <v>1176</v>
       </c>
-      <c r="F662" s="22"/>
+      <c r="F662" s="29"/>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A663">
@@ -22596,7 +22608,7 @@
       <c r="D663" t="s">
         <v>1177</v>
       </c>
-      <c r="F663" s="22"/>
+      <c r="F663" s="29"/>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A664">
@@ -22611,7 +22623,7 @@
       <c r="D664" t="s">
         <v>1178</v>
       </c>
-      <c r="F664" s="22"/>
+      <c r="F664" s="29"/>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A665">
@@ -22626,7 +22638,7 @@
       <c r="D665" t="s">
         <v>1179</v>
       </c>
-      <c r="F665" s="22"/>
+      <c r="F665" s="29"/>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A666">
@@ -22641,7 +22653,7 @@
       <c r="D666" t="s">
         <v>1180</v>
       </c>
-      <c r="F666" s="22"/>
+      <c r="F666" s="29"/>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A667">
@@ -22656,7 +22668,7 @@
       <c r="D667" t="s">
         <v>1181</v>
       </c>
-      <c r="F667" s="22"/>
+      <c r="F667" s="29"/>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A668">
@@ -22671,7 +22683,7 @@
       <c r="D668" t="s">
         <v>1182</v>
       </c>
-      <c r="F668" s="22"/>
+      <c r="F668" s="29"/>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A669">
@@ -22686,7 +22698,7 @@
       <c r="D669" t="s">
         <v>1183</v>
       </c>
-      <c r="F669" s="22"/>
+      <c r="F669" s="29"/>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A670">
@@ -22701,7 +22713,7 @@
       <c r="D670" t="s">
         <v>1184</v>
       </c>
-      <c r="F670" s="22"/>
+      <c r="F670" s="29"/>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A671">
@@ -22716,7 +22728,7 @@
       <c r="D671" t="s">
         <v>1185</v>
       </c>
-      <c r="F671" s="22"/>
+      <c r="F671" s="29"/>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A672">
@@ -22731,7 +22743,7 @@
       <c r="D672" t="s">
         <v>1186</v>
       </c>
-      <c r="F672" s="22"/>
+      <c r="F672" s="29"/>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A673">
@@ -22746,7 +22758,7 @@
       <c r="D673" t="s">
         <v>1187</v>
       </c>
-      <c r="F673" s="22"/>
+      <c r="F673" s="29"/>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A674">
@@ -22761,7 +22773,7 @@
       <c r="D674" t="s">
         <v>1188</v>
       </c>
-      <c r="F674" s="22"/>
+      <c r="F674" s="29"/>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A675">
@@ -22776,7 +22788,7 @@
       <c r="D675" t="s">
         <v>1189</v>
       </c>
-      <c r="F675" s="22"/>
+      <c r="F675" s="29"/>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A676">
@@ -22791,7 +22803,7 @@
       <c r="D676" t="s">
         <v>1190</v>
       </c>
-      <c r="F676" s="22"/>
+      <c r="F676" s="29"/>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A677">
@@ -22806,7 +22818,7 @@
       <c r="D677" t="s">
         <v>1191</v>
       </c>
-      <c r="F677" s="22"/>
+      <c r="F677" s="29"/>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A678">
@@ -22821,7 +22833,7 @@
       <c r="D678" t="s">
         <v>1192</v>
       </c>
-      <c r="F678" s="22"/>
+      <c r="F678" s="29"/>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A679">
@@ -22836,7 +22848,7 @@
       <c r="D679" t="s">
         <v>1193</v>
       </c>
-      <c r="F679" s="22"/>
+      <c r="F679" s="29"/>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A680">
@@ -22851,7 +22863,7 @@
       <c r="D680" t="s">
         <v>1194</v>
       </c>
-      <c r="F680" s="22"/>
+      <c r="F680" s="29"/>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A681">
@@ -22866,7 +22878,7 @@
       <c r="D681" t="s">
         <v>1195</v>
       </c>
-      <c r="F681" s="22"/>
+      <c r="F681" s="29"/>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A682">
@@ -22881,7 +22893,7 @@
       <c r="D682" t="s">
         <v>1196</v>
       </c>
-      <c r="F682" s="22"/>
+      <c r="F682" s="29"/>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A683">
@@ -23022,7 +23034,7 @@
       <c r="D692" t="s">
         <v>1201</v>
       </c>
-      <c r="F692" s="22"/>
+      <c r="F692" s="29"/>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A693">
@@ -23037,7 +23049,7 @@
       <c r="D693" t="s">
         <v>1202</v>
       </c>
-      <c r="F693" s="22"/>
+      <c r="F693" s="29"/>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A694">
@@ -23052,7 +23064,7 @@
       <c r="D694" t="s">
         <v>1203</v>
       </c>
-      <c r="F694" s="22"/>
+      <c r="F694" s="29"/>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A695">
@@ -23067,7 +23079,7 @@
       <c r="D695" t="s">
         <v>1204</v>
       </c>
-      <c r="F695" s="22"/>
+      <c r="F695" s="29"/>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A696">
@@ -23082,7 +23094,7 @@
       <c r="D696" t="s">
         <v>1205</v>
       </c>
-      <c r="F696" s="22"/>
+      <c r="F696" s="29"/>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A697">
@@ -23097,7 +23109,7 @@
       <c r="D697" t="s">
         <v>1206</v>
       </c>
-      <c r="F697" s="22"/>
+      <c r="F697" s="29"/>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A698">
@@ -23112,7 +23124,7 @@
       <c r="D698" t="s">
         <v>1207</v>
       </c>
-      <c r="F698" s="22"/>
+      <c r="F698" s="29"/>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A699">
@@ -23127,7 +23139,7 @@
       <c r="D699" t="s">
         <v>1208</v>
       </c>
-      <c r="F699" s="22"/>
+      <c r="F699" s="29"/>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A700">
@@ -23142,7 +23154,7 @@
       <c r="D700" t="s">
         <v>1209</v>
       </c>
-      <c r="F700" s="22"/>
+      <c r="F700" s="29"/>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A701">
@@ -23157,7 +23169,7 @@
       <c r="D701" t="s">
         <v>1210</v>
       </c>
-      <c r="F701" s="22"/>
+      <c r="F701" s="29"/>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A702">
@@ -23172,7 +23184,7 @@
       <c r="D702" t="s">
         <v>1211</v>
       </c>
-      <c r="F702" s="22"/>
+      <c r="F702" s="29"/>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A703">
@@ -23187,7 +23199,7 @@
       <c r="D703" t="s">
         <v>1212</v>
       </c>
-      <c r="F703" s="22"/>
+      <c r="F703" s="29"/>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A704">
@@ -23202,7 +23214,7 @@
       <c r="D704" t="s">
         <v>1213</v>
       </c>
-      <c r="F704" s="22"/>
+      <c r="F704" s="29"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A705">
@@ -23217,7 +23229,7 @@
       <c r="D705" t="s">
         <v>1214</v>
       </c>
-      <c r="F705" s="22"/>
+      <c r="F705" s="29"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A706">
@@ -23232,7 +23244,7 @@
       <c r="D706" t="s">
         <v>1215</v>
       </c>
-      <c r="F706" s="22"/>
+      <c r="F706" s="29"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A707">
@@ -23247,7 +23259,7 @@
       <c r="D707" t="s">
         <v>1216</v>
       </c>
-      <c r="F707" s="22"/>
+      <c r="F707" s="29"/>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A708">
@@ -23262,7 +23274,7 @@
       <c r="D708" t="s">
         <v>1217</v>
       </c>
-      <c r="F708" s="22"/>
+      <c r="F708" s="29"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A709">
@@ -23277,7 +23289,7 @@
       <c r="D709" t="s">
         <v>1218</v>
       </c>
-      <c r="F709" s="22"/>
+      <c r="F709" s="29"/>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A710">
@@ -23292,7 +23304,7 @@
       <c r="D710" t="s">
         <v>1219</v>
       </c>
-      <c r="F710" s="22"/>
+      <c r="F710" s="29"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A711">
@@ -23307,7 +23319,7 @@
       <c r="D711" t="s">
         <v>1220</v>
       </c>
-      <c r="F711" s="22"/>
+      <c r="F711" s="29"/>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A712">
@@ -23322,7 +23334,7 @@
       <c r="D712" t="s">
         <v>1221</v>
       </c>
-      <c r="F712" s="22"/>
+      <c r="F712" s="29"/>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A713">
@@ -23337,7 +23349,7 @@
       <c r="D713" t="s">
         <v>1222</v>
       </c>
-      <c r="F713" s="22"/>
+      <c r="F713" s="29"/>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A714">
@@ -23478,7 +23490,7 @@
       <c r="D723" t="s">
         <v>1227</v>
       </c>
-      <c r="F723" s="22"/>
+      <c r="F723" s="29"/>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A724">
@@ -23493,7 +23505,7 @@
       <c r="D724" t="s">
         <v>1228</v>
       </c>
-      <c r="F724" s="22"/>
+      <c r="F724" s="29"/>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A725">
@@ -23508,7 +23520,7 @@
       <c r="D725" t="s">
         <v>1229</v>
       </c>
-      <c r="F725" s="22"/>
+      <c r="F725" s="29"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A726">
@@ -23523,7 +23535,7 @@
       <c r="D726" t="s">
         <v>1230</v>
       </c>
-      <c r="F726" s="22"/>
+      <c r="F726" s="29"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A727">
@@ -23538,7 +23550,7 @@
       <c r="D727" t="s">
         <v>1231</v>
       </c>
-      <c r="F727" s="22"/>
+      <c r="F727" s="29"/>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A728">
@@ -23553,7 +23565,7 @@
       <c r="D728" t="s">
         <v>1232</v>
       </c>
-      <c r="F728" s="22"/>
+      <c r="F728" s="29"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A729">
@@ -23568,7 +23580,7 @@
       <c r="D729" t="s">
         <v>1233</v>
       </c>
-      <c r="F729" s="22"/>
+      <c r="F729" s="29"/>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A730">
@@ -23583,7 +23595,7 @@
       <c r="D730" t="s">
         <v>1234</v>
       </c>
-      <c r="F730" s="22"/>
+      <c r="F730" s="29"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A731">
@@ -23598,7 +23610,7 @@
       <c r="D731" t="s">
         <v>1235</v>
       </c>
-      <c r="F731" s="22"/>
+      <c r="F731" s="29"/>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A732">
@@ -23613,7 +23625,7 @@
       <c r="D732" t="s">
         <v>1236</v>
       </c>
-      <c r="F732" s="22"/>
+      <c r="F732" s="29"/>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A733">
@@ -23628,7 +23640,7 @@
       <c r="D733" t="s">
         <v>1237</v>
       </c>
-      <c r="F733" s="22"/>
+      <c r="F733" s="29"/>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A734">
@@ -23643,7 +23655,7 @@
       <c r="D734" t="s">
         <v>1238</v>
       </c>
-      <c r="F734" s="22"/>
+      <c r="F734" s="29"/>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A735">
@@ -23658,7 +23670,7 @@
       <c r="D735" t="s">
         <v>1239</v>
       </c>
-      <c r="F735" s="22"/>
+      <c r="F735" s="29"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A736">
@@ -23673,7 +23685,7 @@
       <c r="D736" t="s">
         <v>1240</v>
       </c>
-      <c r="F736" s="22"/>
+      <c r="F736" s="29"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A737">
@@ -23688,7 +23700,7 @@
       <c r="D737" t="s">
         <v>1241</v>
       </c>
-      <c r="F737" s="22"/>
+      <c r="F737" s="29"/>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A738">
@@ -23703,7 +23715,7 @@
       <c r="D738" t="s">
         <v>1242</v>
       </c>
-      <c r="F738" s="22"/>
+      <c r="F738" s="29"/>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A739">
@@ -23718,7 +23730,7 @@
       <c r="D739" t="s">
         <v>1243</v>
       </c>
-      <c r="F739" s="22"/>
+      <c r="F739" s="29"/>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A740">
@@ -23733,7 +23745,7 @@
       <c r="D740" t="s">
         <v>1244</v>
       </c>
-      <c r="F740" s="22"/>
+      <c r="F740" s="29"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A741">
@@ -23748,7 +23760,7 @@
       <c r="D741" t="s">
         <v>1245</v>
       </c>
-      <c r="F741" s="22"/>
+      <c r="F741" s="29"/>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A742">
@@ -23763,7 +23775,7 @@
       <c r="D742" t="s">
         <v>1246</v>
       </c>
-      <c r="F742" s="22"/>
+      <c r="F742" s="29"/>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A743">
@@ -23778,7 +23790,7 @@
       <c r="D743" t="s">
         <v>1247</v>
       </c>
-      <c r="F743" s="22"/>
+      <c r="F743" s="29"/>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A744">
@@ -23793,7 +23805,7 @@
       <c r="D744" t="s">
         <v>1248</v>
       </c>
-      <c r="F744" s="22"/>
+      <c r="F744" s="29"/>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A745">
@@ -26818,7 +26830,7 @@
       <c r="D960" t="s">
         <v>1455</v>
       </c>
-      <c r="E960" s="3"/>
+      <c r="E960" s="30"/>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A961">
@@ -26833,7 +26845,7 @@
       <c r="D961" s="3" t="s">
         <v>1456</v>
       </c>
-      <c r="E961" s="3"/>
+      <c r="E961" s="30"/>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A962">
@@ -26848,7 +26860,7 @@
       <c r="D962" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="E962" s="3"/>
+      <c r="E962" s="30"/>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A963">
@@ -26863,7 +26875,7 @@
       <c r="D963" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="E963" s="3"/>
+      <c r="E963" s="30"/>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A964">
@@ -26878,7 +26890,7 @@
       <c r="D964" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="E964" s="3"/>
+      <c r="E964" s="30"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A965">
@@ -26893,7 +26905,7 @@
       <c r="D965" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="E965" s="3"/>
+      <c r="E965" s="30"/>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A966">
@@ -26908,7 +26920,7 @@
       <c r="D966" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="E966" s="3"/>
+      <c r="E966" s="30"/>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A967">
@@ -26923,7 +26935,7 @@
       <c r="D967" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="E967" s="3"/>
+      <c r="E967" s="30"/>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A968">
@@ -26938,7 +26950,7 @@
       <c r="D968" s="3" t="s">
         <v>1463</v>
       </c>
-      <c r="E968" s="3"/>
+      <c r="E968" s="30"/>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A969">
@@ -26953,7 +26965,7 @@
       <c r="D969" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="E969" s="3"/>
+      <c r="E969" s="30"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A970">
@@ -26968,7 +26980,7 @@
       <c r="D970" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="E970" s="3"/>
+      <c r="E970" s="30"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A971">
@@ -26983,7 +26995,7 @@
       <c r="D971" s="3" t="s">
         <v>1466</v>
       </c>
-      <c r="E971" s="3"/>
+      <c r="E971" s="30"/>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A972">
@@ -26998,7 +27010,7 @@
       <c r="D972" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="E972" s="3"/>
+      <c r="E972" s="30"/>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A973">
@@ -27013,7 +27025,7 @@
       <c r="D973" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="E973" s="3"/>
+      <c r="E973" s="30"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A974">
@@ -27028,7 +27040,7 @@
       <c r="D974" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="E974" s="3"/>
+      <c r="E974" s="30"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A975">
@@ -27043,7 +27055,7 @@
       <c r="D975" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="E975" s="3"/>
+      <c r="E975" s="30"/>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A976">
@@ -27058,7 +27070,7 @@
       <c r="D976" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="E976" s="3"/>
+      <c r="E976" s="30"/>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A977">
@@ -27073,7 +27085,7 @@
       <c r="D977" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="E977" s="3"/>
+      <c r="E977" s="30"/>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A978">
@@ -27088,7 +27100,7 @@
       <c r="D978" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="E978" s="3"/>
+      <c r="E978" s="30"/>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A979">
@@ -27103,7 +27115,7 @@
       <c r="D979" t="s">
         <v>1474</v>
       </c>
-      <c r="E979" s="3"/>
+      <c r="E979" s="30"/>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A980">

--- a/LSA Data Dictionary FY2024.xlsx
+++ b/LSA Data Dictionary FY2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{4C794D6F-E862-4F2C-98E1-131F5B0D33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{329C507A-3AFF-4D8D-B7E7-E4B7A338D72A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{4C794D6F-E862-4F2C-98E1-131F5B0D33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F98A15-DB00-4B4D-8488-46E407628702}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7455" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-28920" yWindow="-7455" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="1545">
   <si>
     <t>File ID</t>
   </si>
@@ -4400,12 +4400,6 @@
     <t>CH Status Unknown (missing data)</t>
   </si>
   <si>
-    <t>New list</t>
-  </si>
-  <si>
-    <t>Updated list</t>
-  </si>
-  <si>
     <t xml:space="preserve">LSAExit includes counts of households who exited from continuum ES, SH, TH, RRH, PSH and RRH-SO projects and remained inactive for at least 2 weeks after exit.  Counts are grouped by the cohort period in which the exit occurred, the recorded destination type at the time of exit, household characteristics, and patterns of system use both before and after exit.  </t>
   </si>
   <si>
@@ -4536,9 +4530,6 @@
   </si>
   <si>
     <t xml:space="preserve">Identifies race and ethnicity for head of household as reported in LSAPerson. </t>
-  </si>
-  <si>
-    <t>Combined Race and Ethnicity per HMIS Data Standards updates - new list.</t>
   </si>
   <si>
     <t>nvarchar(6)</t>
@@ -4808,7 +4799,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4882,13 +4873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5242,7 +5226,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5307,7 +5291,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>527</v>
@@ -5358,7 +5342,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>527</v>
@@ -5409,7 +5393,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>527</v>
@@ -5426,7 +5410,7 @@
         <v>1065</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>527</v>
@@ -5443,7 +5427,7 @@
         <v>1066</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>527</v>
@@ -5463,7 +5447,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5509,10 +5493,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5633,7 +5617,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5659,7 +5643,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5685,7 +5669,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5711,7 +5695,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5737,7 +5721,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -5772,10 +5756,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -6481,9 +6465,6 @@
       <c r="H37" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I37" s="4" t="s">
-        <v>1448</v>
-      </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
@@ -6569,10 +6550,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1454</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6589,7 +6567,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>38</v>
@@ -6601,10 +6579,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1492</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="J41" s="3">
         <v>7</v>
@@ -8216,7 +8191,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>38</v>
@@ -8228,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="J97" s="3">
         <v>2</v>
@@ -8245,7 +8220,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>38</v>
@@ -8257,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="J98" s="3">
         <v>2</v>
@@ -8338,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="J101" s="3">
         <v>7</v>
@@ -8355,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>38</v>
@@ -8367,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="J102" s="3">
         <v>7</v>
@@ -8425,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -9973,7 +9948,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>38</v>
@@ -9999,7 +9974,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>38</v>
@@ -10524,7 +10499,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>38</v>
@@ -10536,7 +10511,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="J178" s="3">
         <v>7</v>
@@ -10854,7 +10829,7 @@
         <v>306</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -10933,7 +10908,7 @@
         <v>308</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -10957,7 +10932,7 @@
         <v>309</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
@@ -11010,7 +10985,7 @@
         <v>310</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11085,7 +11060,7 @@
         <v>313</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11139,7 +11114,7 @@
         <v>315</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11166,7 +11141,7 @@
         <v>306</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11190,7 +11165,7 @@
         <v>308</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11214,7 +11189,7 @@
         <v>316</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
@@ -11238,7 +11213,7 @@
         <v>317</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11577,7 +11552,7 @@
         <v>313</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11631,7 +11606,7 @@
         <v>315</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11658,7 +11633,7 @@
         <v>326</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11682,7 +11657,7 @@
         <v>306</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11732,7 +11707,7 @@
         <v>327</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
@@ -11755,7 +11730,7 @@
         <v>328</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11873,7 +11848,7 @@
         <v>313</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -11925,7 +11900,7 @@
         <v>315</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -11951,7 +11926,7 @@
         <v>331</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -11974,7 +11949,7 @@
         <v>306</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -11997,7 +11972,7 @@
         <v>332</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -12023,7 +11998,7 @@
         <v>333</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12046,7 +12021,7 @@
         <v>334</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12069,7 +12044,7 @@
         <v>335</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12092,7 +12067,7 @@
         <v>336</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12115,7 +12090,7 @@
         <v>337</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12138,7 +12113,7 @@
         <v>338</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12233,7 +12208,7 @@
         <v>313</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12285,7 +12260,7 @@
         <v>315</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12311,7 +12286,7 @@
         <v>340</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12334,7 +12309,7 @@
         <v>306</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12357,7 +12332,7 @@
         <v>332</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12760,7 +12735,7 @@
         <v>313</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12812,7 +12787,7 @@
         <v>315</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12835,10 +12810,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G270" s="3">
         <v>0</v>
@@ -12861,13 +12836,13 @@
         <v>306</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G271" s="3">
         <v>0</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="J271" s="3">
         <v>32</v>
@@ -13005,7 +12980,7 @@
         <v>313</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G277" s="3">
         <v>1</v>
@@ -13057,7 +13032,7 @@
         <v>315</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G279" s="3">
         <v>0</v>
@@ -13083,7 +13058,7 @@
         <v>1069</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G280" s="3">
         <v>0</v>
@@ -13106,7 +13081,7 @@
         <v>306</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G281" s="3">
         <v>0</v>
@@ -13132,7 +13107,7 @@
         <v>1070</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G282" s="3">
         <v>0</v>
@@ -13204,7 +13179,7 @@
         <v>313</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G285" s="3">
         <v>1</v>
@@ -13256,7 +13231,7 @@
         <v>315</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="G287" s="3">
         <v>0</v>
@@ -13280,7 +13255,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:N1082"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -13289,8 +13264,7 @@
   <cols>
     <col min="2" max="2" width="19.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="95.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="28"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -13346,7 +13320,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -13620,7 +13594,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -13634,7 +13608,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -13648,7 +13622,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -13662,7 +13636,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -13676,7 +13650,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -13690,7 +13664,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -13704,7 +13678,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -13718,7 +13692,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -13732,7 +13706,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C32">
         <v>13</v>
@@ -13746,7 +13720,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C33">
         <v>14</v>
@@ -13760,7 +13734,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -13774,7 +13748,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C35">
         <v>16</v>
@@ -13788,7 +13762,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C36">
         <v>17</v>
@@ -13802,7 +13776,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C37">
         <v>23</v>
@@ -13816,7 +13790,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C38">
         <v>24</v>
@@ -13830,7 +13804,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C39">
         <v>25</v>
@@ -13844,7 +13818,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C40">
         <v>26</v>
@@ -13858,7 +13832,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C41">
         <v>27</v>
@@ -13872,7 +13846,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -13886,7 +13860,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C43">
         <v>35</v>
@@ -13900,7 +13874,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C44">
         <v>36</v>
@@ -13914,7 +13888,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C45">
         <v>37</v>
@@ -13928,7 +13902,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -13942,7 +13916,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -13956,7 +13930,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -13970,7 +13944,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C49">
         <v>56</v>
@@ -13984,7 +13958,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C50">
         <v>57</v>
@@ -13998,7 +13972,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C51">
         <v>67</v>
@@ -14012,7 +13986,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C52">
         <v>98</v>
@@ -14026,7 +14000,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C53">
         <v>99</v>
@@ -14040,7 +14014,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C54">
         <v>123</v>
@@ -14054,7 +14028,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C55">
         <v>124</v>
@@ -14068,7 +14042,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C56">
         <v>125</v>
@@ -14082,7 +14056,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C57">
         <v>126</v>
@@ -14096,7 +14070,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C58">
         <v>127</v>
@@ -14110,7 +14084,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C59">
         <v>134</v>
@@ -14124,7 +14098,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C60">
         <v>135</v>
@@ -14138,7 +14112,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C61">
         <v>136</v>
@@ -14152,7 +14126,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C62">
         <v>137</v>
@@ -14166,7 +14140,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C63">
         <v>145</v>
@@ -14180,7 +14154,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C64">
         <v>146</v>
@@ -14194,7 +14168,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C65">
         <v>147</v>
@@ -14208,7 +14182,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C66">
         <v>156</v>
@@ -14222,7 +14196,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C67">
         <v>157</v>
@@ -14236,7 +14210,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C68">
         <v>167</v>
@@ -14250,7 +14224,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C69">
         <v>234</v>
@@ -14264,7 +14238,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C70">
         <v>235</v>
@@ -14278,7 +14252,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C71">
         <v>236</v>
@@ -14292,7 +14266,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C72">
         <v>237</v>
@@ -14306,7 +14280,7 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C73">
         <v>245</v>
@@ -14320,7 +14294,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C74">
         <v>246</v>
@@ -14334,7 +14308,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C75">
         <v>247</v>
@@ -14348,7 +14322,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C76">
         <v>256</v>
@@ -14362,7 +14336,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C77">
         <v>257</v>
@@ -14376,7 +14350,7 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C78">
         <v>267</v>
@@ -14390,7 +14364,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C79">
         <v>345</v>
@@ -14404,7 +14378,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C80">
         <v>346</v>
@@ -14418,7 +14392,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C81">
         <v>347</v>
@@ -14432,7 +14406,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C82">
         <v>356</v>
@@ -14446,7 +14420,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C83">
         <v>357</v>
@@ -14460,7 +14434,7 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C84">
         <v>367</v>
@@ -14474,7 +14448,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C85">
         <v>456</v>
@@ -14488,7 +14462,7 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C86">
         <v>457</v>
@@ -14502,7 +14476,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C87">
         <v>467</v>
@@ -14516,7 +14490,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C88">
         <v>567</v>
@@ -14530,7 +14504,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C89">
         <v>1234</v>
@@ -14544,7 +14518,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C90">
         <v>1235</v>
@@ -14558,7 +14532,7 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C91">
         <v>1236</v>
@@ -14572,7 +14546,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C92">
         <v>1237</v>
@@ -14586,7 +14560,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C93">
         <v>1245</v>
@@ -14600,7 +14574,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C94">
         <v>1246</v>
@@ -14614,7 +14588,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C95">
         <v>1247</v>
@@ -14628,7 +14602,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C96">
         <v>1256</v>
@@ -14642,7 +14616,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C97">
         <v>1257</v>
@@ -14656,7 +14630,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C98">
         <v>1267</v>
@@ -14670,7 +14644,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C99">
         <v>1345</v>
@@ -14684,7 +14658,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C100">
         <v>1346</v>
@@ -14698,7 +14672,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C101">
         <v>1347</v>
@@ -14712,7 +14686,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C102">
         <v>1356</v>
@@ -14726,7 +14700,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C103">
         <v>1357</v>
@@ -14740,7 +14714,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C104">
         <v>1367</v>
@@ -14754,7 +14728,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C105">
         <v>1456</v>
@@ -14768,7 +14742,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C106">
         <v>1457</v>
@@ -14782,7 +14756,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C107">
         <v>1467</v>
@@ -14796,7 +14770,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C108">
         <v>1567</v>
@@ -14810,7 +14784,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C109">
         <v>2345</v>
@@ -14824,7 +14798,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C110">
         <v>2346</v>
@@ -14838,7 +14812,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C111">
         <v>2347</v>
@@ -14852,7 +14826,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C112">
         <v>2356</v>
@@ -14866,7 +14840,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C113">
         <v>2357</v>
@@ -14880,7 +14854,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C114">
         <v>2367</v>
@@ -14894,7 +14868,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C115">
         <v>2456</v>
@@ -14908,7 +14882,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C116">
         <v>2457</v>
@@ -14922,7 +14896,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C117">
         <v>2467</v>
@@ -14936,7 +14910,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C118">
         <v>2567</v>
@@ -14950,7 +14924,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C119">
         <v>3456</v>
@@ -14964,7 +14938,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C120">
         <v>3457</v>
@@ -14978,7 +14952,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C121">
         <v>3467</v>
@@ -14992,7 +14966,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C122">
         <v>3567</v>
@@ -15006,7 +14980,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C123">
         <v>4567</v>
@@ -15020,7 +14994,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C124">
         <v>12345</v>
@@ -15034,7 +15008,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C125">
         <v>12346</v>
@@ -15048,7 +15022,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C126">
         <v>12347</v>
@@ -15062,7 +15036,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C127">
         <v>12356</v>
@@ -15076,7 +15050,7 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C128">
         <v>12357</v>
@@ -15090,7 +15064,7 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C129">
         <v>12367</v>
@@ -15104,7 +15078,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C130">
         <v>12456</v>
@@ -15118,7 +15092,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C131">
         <v>12457</v>
@@ -15132,7 +15106,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C132">
         <v>12467</v>
@@ -15146,7 +15120,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C133">
         <v>12567</v>
@@ -15160,7 +15134,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C134">
         <v>13456</v>
@@ -15174,7 +15148,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C135">
         <v>13457</v>
@@ -15188,7 +15162,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C136">
         <v>13467</v>
@@ -15202,7 +15176,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C137">
         <v>13567</v>
@@ -15216,7 +15190,7 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C138">
         <v>14567</v>
@@ -15230,7 +15204,7 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C139">
         <v>23456</v>
@@ -15244,7 +15218,7 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C140">
         <v>23457</v>
@@ -15258,7 +15232,7 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C141">
         <v>23467</v>
@@ -15272,7 +15246,7 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C142">
         <v>23567</v>
@@ -15286,7 +15260,7 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C143">
         <v>24567</v>
@@ -15300,7 +15274,7 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C144">
         <v>34567</v>
@@ -15314,7 +15288,7 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C145">
         <v>123456</v>
@@ -15328,7 +15302,7 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C146">
         <v>123457</v>
@@ -15342,7 +15316,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C147">
         <v>123467</v>
@@ -15356,7 +15330,7 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C148">
         <v>123567</v>
@@ -15370,7 +15344,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C149">
         <v>124567</v>
@@ -15384,7 +15358,7 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C150">
         <v>134567</v>
@@ -15398,7 +15372,7 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C151">
         <v>234567</v>
@@ -15412,7 +15386,7 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="C152">
         <v>1234567</v>
@@ -16202,7 +16176,7 @@
         <v>419</v>
       </c>
       <c r="D208" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16216,7 +16190,7 @@
         <v>420</v>
       </c>
       <c r="D209" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
@@ -16244,7 +16218,7 @@
         <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16258,7 +16232,7 @@
         <v>431</v>
       </c>
       <c r="D212" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16272,7 +16246,7 @@
         <v>433</v>
       </c>
       <c r="D213" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16286,7 +16260,7 @@
         <v>434</v>
       </c>
       <c r="D214" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16300,7 +16274,7 @@
         <v>436</v>
       </c>
       <c r="D215" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16314,7 +16288,7 @@
         <v>437</v>
       </c>
       <c r="D216" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16328,7 +16302,7 @@
         <v>438</v>
       </c>
       <c r="D217" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16342,7 +16316,7 @@
         <v>439</v>
       </c>
       <c r="D218" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16356,7 +16330,7 @@
         <v>440</v>
       </c>
       <c r="D219" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
@@ -16678,7 +16652,7 @@
         <v>419</v>
       </c>
       <c r="D242" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16692,7 +16666,7 @@
         <v>420</v>
       </c>
       <c r="D243" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -16762,7 +16736,7 @@
         <v>428</v>
       </c>
       <c r="D248" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16776,7 +16750,7 @@
         <v>431</v>
       </c>
       <c r="D249" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16790,7 +16764,7 @@
         <v>433</v>
       </c>
       <c r="D250" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16804,7 +16778,7 @@
         <v>434</v>
       </c>
       <c r="D251" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -16818,7 +16792,7 @@
         <v>436</v>
       </c>
       <c r="D252" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -16832,7 +16806,7 @@
         <v>437</v>
       </c>
       <c r="D253" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -16846,7 +16820,7 @@
         <v>438</v>
       </c>
       <c r="D254" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -16860,7 +16834,7 @@
         <v>439</v>
       </c>
       <c r="D255" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -16874,7 +16848,7 @@
         <v>440</v>
       </c>
       <c r="D256" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -20948,7 +20922,7 @@
         <v>48</v>
       </c>
       <c r="D547" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
@@ -21468,7 +21442,7 @@
       <c r="D584" t="s">
         <v>413</v>
       </c>
-      <c r="N584" s="29"/>
+      <c r="N584" s="22"/>
     </row>
     <row r="585" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A585">
@@ -21483,7 +21457,7 @@
       <c r="D585" t="s">
         <v>367</v>
       </c>
-      <c r="N585" s="29"/>
+      <c r="N585" s="22"/>
     </row>
     <row r="586" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A586">
@@ -21498,7 +21472,7 @@
       <c r="D586" t="s">
         <v>368</v>
       </c>
-      <c r="N586" s="29"/>
+      <c r="N586" s="22"/>
     </row>
     <row r="587" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A587">
@@ -21513,7 +21487,7 @@
       <c r="D587" t="s">
         <v>369</v>
       </c>
-      <c r="N587" s="29"/>
+      <c r="N587" s="22"/>
     </row>
     <row r="588" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A588">
@@ -21528,7 +21502,7 @@
       <c r="D588" t="s">
         <v>370</v>
       </c>
-      <c r="N588" s="29"/>
+      <c r="N588" s="22"/>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A589">
@@ -21543,7 +21517,7 @@
       <c r="D589" t="s">
         <v>371</v>
       </c>
-      <c r="N589" s="29"/>
+      <c r="N589" s="22"/>
     </row>
     <row r="590" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A590">
@@ -21558,7 +21532,7 @@
       <c r="D590" t="s">
         <v>372</v>
       </c>
-      <c r="N590" s="29"/>
+      <c r="N590" s="22"/>
     </row>
     <row r="591" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A591">
@@ -21573,7 +21547,7 @@
       <c r="D591" t="s">
         <v>373</v>
       </c>
-      <c r="N591" s="29"/>
+      <c r="N591" s="22"/>
     </row>
     <row r="592" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A592">
@@ -21588,7 +21562,7 @@
       <c r="D592" t="s">
         <v>374</v>
       </c>
-      <c r="N592" s="29"/>
+      <c r="N592" s="22"/>
     </row>
     <row r="593" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A593">
@@ -21603,7 +21577,7 @@
       <c r="D593" t="s">
         <v>375</v>
       </c>
-      <c r="N593" s="29"/>
+      <c r="N593" s="22"/>
     </row>
     <row r="594" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A594">
@@ -21630,7 +21604,7 @@
         <v>97</v>
       </c>
       <c r="D595" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.45">
@@ -22036,7 +22010,7 @@
         <v>1048</v>
       </c>
       <c r="D624" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22150,7 +22124,7 @@
       <c r="D632" t="s">
         <v>1151</v>
       </c>
-      <c r="F632" s="29"/>
+      <c r="F632" s="22"/>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A633">
@@ -22165,7 +22139,7 @@
       <c r="D633" t="s">
         <v>1152</v>
       </c>
-      <c r="F633" s="29"/>
+      <c r="F633" s="22"/>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A634">
@@ -22180,7 +22154,7 @@
       <c r="D634" t="s">
         <v>1153</v>
       </c>
-      <c r="F634" s="29"/>
+      <c r="F634" s="22"/>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A635">
@@ -22195,7 +22169,7 @@
       <c r="D635" t="s">
         <v>1154</v>
       </c>
-      <c r="F635" s="29"/>
+      <c r="F635" s="22"/>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A636">
@@ -22210,7 +22184,7 @@
       <c r="D636" t="s">
         <v>1155</v>
       </c>
-      <c r="F636" s="29"/>
+      <c r="F636" s="22"/>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A637">
@@ -22225,7 +22199,7 @@
       <c r="D637" t="s">
         <v>1156</v>
       </c>
-      <c r="F637" s="29"/>
+      <c r="F637" s="22"/>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A638">
@@ -22240,7 +22214,7 @@
       <c r="D638" t="s">
         <v>1157</v>
       </c>
-      <c r="F638" s="29"/>
+      <c r="F638" s="22"/>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A639">
@@ -22255,7 +22229,7 @@
       <c r="D639" t="s">
         <v>1158</v>
       </c>
-      <c r="F639" s="29"/>
+      <c r="F639" s="22"/>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A640">
@@ -22270,7 +22244,7 @@
       <c r="D640" t="s">
         <v>1159</v>
       </c>
-      <c r="F640" s="29"/>
+      <c r="F640" s="22"/>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A641">
@@ -22285,7 +22259,7 @@
       <c r="D641" t="s">
         <v>1160</v>
       </c>
-      <c r="F641" s="29"/>
+      <c r="F641" s="22"/>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A642">
@@ -22300,7 +22274,7 @@
       <c r="D642" t="s">
         <v>1161</v>
       </c>
-      <c r="F642" s="29"/>
+      <c r="F642" s="22"/>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A643">
@@ -22315,7 +22289,7 @@
       <c r="D643" t="s">
         <v>1162</v>
       </c>
-      <c r="F643" s="29"/>
+      <c r="F643" s="22"/>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A644">
@@ -22330,7 +22304,7 @@
       <c r="D644" t="s">
         <v>1163</v>
       </c>
-      <c r="F644" s="29"/>
+      <c r="F644" s="22"/>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A645">
@@ -22345,7 +22319,7 @@
       <c r="D645" t="s">
         <v>1164</v>
       </c>
-      <c r="F645" s="29"/>
+      <c r="F645" s="22"/>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A646">
@@ -22360,7 +22334,7 @@
       <c r="D646" t="s">
         <v>1165</v>
       </c>
-      <c r="F646" s="29"/>
+      <c r="F646" s="22"/>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A647">
@@ -22375,7 +22349,7 @@
       <c r="D647" t="s">
         <v>1166</v>
       </c>
-      <c r="F647" s="29"/>
+      <c r="F647" s="22"/>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A648">
@@ -22390,7 +22364,7 @@
       <c r="D648" t="s">
         <v>1167</v>
       </c>
-      <c r="F648" s="29"/>
+      <c r="F648" s="22"/>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A649">
@@ -22405,7 +22379,7 @@
       <c r="D649" t="s">
         <v>1168</v>
       </c>
-      <c r="F649" s="29"/>
+      <c r="F649" s="22"/>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A650">
@@ -22420,7 +22394,7 @@
       <c r="D650" t="s">
         <v>1169</v>
       </c>
-      <c r="F650" s="29"/>
+      <c r="F650" s="22"/>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A651">
@@ -22435,7 +22409,7 @@
       <c r="D651" t="s">
         <v>1170</v>
       </c>
-      <c r="F651" s="29"/>
+      <c r="F651" s="22"/>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A652">
@@ -22450,7 +22424,7 @@
       <c r="D652" t="s">
         <v>1171</v>
       </c>
-      <c r="F652" s="29"/>
+      <c r="F652" s="22"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A653">
@@ -22463,7 +22437,7 @@
         <v>1148</v>
       </c>
       <c r="D653" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.45">
@@ -22479,7 +22453,7 @@
       <c r="D654" t="s">
         <v>382</v>
       </c>
-      <c r="F654" s="29"/>
+      <c r="F654" s="22"/>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A655">
@@ -22578,7 +22552,7 @@
       <c r="D661" t="s">
         <v>1175</v>
       </c>
-      <c r="F661" s="29"/>
+      <c r="F661" s="22"/>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A662">
@@ -22593,7 +22567,7 @@
       <c r="D662" t="s">
         <v>1176</v>
       </c>
-      <c r="F662" s="29"/>
+      <c r="F662" s="22"/>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A663">
@@ -22608,7 +22582,7 @@
       <c r="D663" t="s">
         <v>1177</v>
       </c>
-      <c r="F663" s="29"/>
+      <c r="F663" s="22"/>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A664">
@@ -22623,7 +22597,7 @@
       <c r="D664" t="s">
         <v>1178</v>
       </c>
-      <c r="F664" s="29"/>
+      <c r="F664" s="22"/>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A665">
@@ -22638,7 +22612,7 @@
       <c r="D665" t="s">
         <v>1179</v>
       </c>
-      <c r="F665" s="29"/>
+      <c r="F665" s="22"/>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A666">
@@ -22653,7 +22627,7 @@
       <c r="D666" t="s">
         <v>1180</v>
       </c>
-      <c r="F666" s="29"/>
+      <c r="F666" s="22"/>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A667">
@@ -22668,7 +22642,7 @@
       <c r="D667" t="s">
         <v>1181</v>
       </c>
-      <c r="F667" s="29"/>
+      <c r="F667" s="22"/>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A668">
@@ -22683,7 +22657,7 @@
       <c r="D668" t="s">
         <v>1182</v>
       </c>
-      <c r="F668" s="29"/>
+      <c r="F668" s="22"/>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A669">
@@ -22698,7 +22672,7 @@
       <c r="D669" t="s">
         <v>1183</v>
       </c>
-      <c r="F669" s="29"/>
+      <c r="F669" s="22"/>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A670">
@@ -22713,7 +22687,7 @@
       <c r="D670" t="s">
         <v>1184</v>
       </c>
-      <c r="F670" s="29"/>
+      <c r="F670" s="22"/>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A671">
@@ -22728,7 +22702,7 @@
       <c r="D671" t="s">
         <v>1185</v>
       </c>
-      <c r="F671" s="29"/>
+      <c r="F671" s="22"/>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A672">
@@ -22743,7 +22717,7 @@
       <c r="D672" t="s">
         <v>1186</v>
       </c>
-      <c r="F672" s="29"/>
+      <c r="F672" s="22"/>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A673">
@@ -22758,7 +22732,7 @@
       <c r="D673" t="s">
         <v>1187</v>
       </c>
-      <c r="F673" s="29"/>
+      <c r="F673" s="22"/>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A674">
@@ -22773,7 +22747,7 @@
       <c r="D674" t="s">
         <v>1188</v>
       </c>
-      <c r="F674" s="29"/>
+      <c r="F674" s="22"/>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A675">
@@ -22788,7 +22762,7 @@
       <c r="D675" t="s">
         <v>1189</v>
       </c>
-      <c r="F675" s="29"/>
+      <c r="F675" s="22"/>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A676">
@@ -22803,7 +22777,7 @@
       <c r="D676" t="s">
         <v>1190</v>
       </c>
-      <c r="F676" s="29"/>
+      <c r="F676" s="22"/>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A677">
@@ -22818,7 +22792,7 @@
       <c r="D677" t="s">
         <v>1191</v>
       </c>
-      <c r="F677" s="29"/>
+      <c r="F677" s="22"/>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A678">
@@ -22833,7 +22807,7 @@
       <c r="D678" t="s">
         <v>1192</v>
       </c>
-      <c r="F678" s="29"/>
+      <c r="F678" s="22"/>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A679">
@@ -22848,7 +22822,7 @@
       <c r="D679" t="s">
         <v>1193</v>
       </c>
-      <c r="F679" s="29"/>
+      <c r="F679" s="22"/>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A680">
@@ -22863,7 +22837,7 @@
       <c r="D680" t="s">
         <v>1194</v>
       </c>
-      <c r="F680" s="29"/>
+      <c r="F680" s="22"/>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A681">
@@ -22878,7 +22852,7 @@
       <c r="D681" t="s">
         <v>1195</v>
       </c>
-      <c r="F681" s="29"/>
+      <c r="F681" s="22"/>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A682">
@@ -22893,7 +22867,7 @@
       <c r="D682" t="s">
         <v>1196</v>
       </c>
-      <c r="F682" s="29"/>
+      <c r="F682" s="22"/>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A683">
@@ -22920,7 +22894,7 @@
         <v>1248</v>
       </c>
       <c r="D684" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.45">
@@ -23034,7 +23008,7 @@
       <c r="D692" t="s">
         <v>1201</v>
       </c>
-      <c r="F692" s="29"/>
+      <c r="F692" s="22"/>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A693">
@@ -23049,7 +23023,7 @@
       <c r="D693" t="s">
         <v>1202</v>
       </c>
-      <c r="F693" s="29"/>
+      <c r="F693" s="22"/>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A694">
@@ -23064,7 +23038,7 @@
       <c r="D694" t="s">
         <v>1203</v>
       </c>
-      <c r="F694" s="29"/>
+      <c r="F694" s="22"/>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A695">
@@ -23079,7 +23053,7 @@
       <c r="D695" t="s">
         <v>1204</v>
       </c>
-      <c r="F695" s="29"/>
+      <c r="F695" s="22"/>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A696">
@@ -23094,7 +23068,7 @@
       <c r="D696" t="s">
         <v>1205</v>
       </c>
-      <c r="F696" s="29"/>
+      <c r="F696" s="22"/>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A697">
@@ -23109,7 +23083,7 @@
       <c r="D697" t="s">
         <v>1206</v>
       </c>
-      <c r="F697" s="29"/>
+      <c r="F697" s="22"/>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A698">
@@ -23124,7 +23098,7 @@
       <c r="D698" t="s">
         <v>1207</v>
       </c>
-      <c r="F698" s="29"/>
+      <c r="F698" s="22"/>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A699">
@@ -23139,7 +23113,7 @@
       <c r="D699" t="s">
         <v>1208</v>
       </c>
-      <c r="F699" s="29"/>
+      <c r="F699" s="22"/>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A700">
@@ -23154,7 +23128,7 @@
       <c r="D700" t="s">
         <v>1209</v>
       </c>
-      <c r="F700" s="29"/>
+      <c r="F700" s="22"/>
     </row>
     <row r="701" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A701">
@@ -23169,7 +23143,7 @@
       <c r="D701" t="s">
         <v>1210</v>
       </c>
-      <c r="F701" s="29"/>
+      <c r="F701" s="22"/>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A702">
@@ -23184,7 +23158,7 @@
       <c r="D702" t="s">
         <v>1211</v>
       </c>
-      <c r="F702" s="29"/>
+      <c r="F702" s="22"/>
     </row>
     <row r="703" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A703">
@@ -23199,7 +23173,7 @@
       <c r="D703" t="s">
         <v>1212</v>
       </c>
-      <c r="F703" s="29"/>
+      <c r="F703" s="22"/>
     </row>
     <row r="704" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A704">
@@ -23214,7 +23188,7 @@
       <c r="D704" t="s">
         <v>1213</v>
       </c>
-      <c r="F704" s="29"/>
+      <c r="F704" s="22"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A705">
@@ -23229,7 +23203,7 @@
       <c r="D705" t="s">
         <v>1214</v>
       </c>
-      <c r="F705" s="29"/>
+      <c r="F705" s="22"/>
     </row>
     <row r="706" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A706">
@@ -23244,7 +23218,7 @@
       <c r="D706" t="s">
         <v>1215</v>
       </c>
-      <c r="F706" s="29"/>
+      <c r="F706" s="22"/>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A707">
@@ -23259,7 +23233,7 @@
       <c r="D707" t="s">
         <v>1216</v>
       </c>
-      <c r="F707" s="29"/>
+      <c r="F707" s="22"/>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A708">
@@ -23274,7 +23248,7 @@
       <c r="D708" t="s">
         <v>1217</v>
       </c>
-      <c r="F708" s="29"/>
+      <c r="F708" s="22"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A709">
@@ -23289,7 +23263,7 @@
       <c r="D709" t="s">
         <v>1218</v>
       </c>
-      <c r="F709" s="29"/>
+      <c r="F709" s="22"/>
     </row>
     <row r="710" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A710">
@@ -23304,7 +23278,7 @@
       <c r="D710" t="s">
         <v>1219</v>
       </c>
-      <c r="F710" s="29"/>
+      <c r="F710" s="22"/>
     </row>
     <row r="711" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A711">
@@ -23319,7 +23293,7 @@
       <c r="D711" t="s">
         <v>1220</v>
       </c>
-      <c r="F711" s="29"/>
+      <c r="F711" s="22"/>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A712">
@@ -23334,7 +23308,7 @@
       <c r="D712" t="s">
         <v>1221</v>
       </c>
-      <c r="F712" s="29"/>
+      <c r="F712" s="22"/>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A713">
@@ -23349,7 +23323,7 @@
       <c r="D713" t="s">
         <v>1222</v>
       </c>
-      <c r="F713" s="29"/>
+      <c r="F713" s="22"/>
     </row>
     <row r="714" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A714">
@@ -23404,7 +23378,7 @@
         <v>1348</v>
       </c>
       <c r="D717" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23490,7 +23464,7 @@
       <c r="D723" t="s">
         <v>1227</v>
       </c>
-      <c r="F723" s="29"/>
+      <c r="F723" s="22"/>
     </row>
     <row r="724" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A724">
@@ -23505,7 +23479,7 @@
       <c r="D724" t="s">
         <v>1228</v>
       </c>
-      <c r="F724" s="29"/>
+      <c r="F724" s="22"/>
     </row>
     <row r="725" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A725">
@@ -23520,7 +23494,7 @@
       <c r="D725" t="s">
         <v>1229</v>
       </c>
-      <c r="F725" s="29"/>
+      <c r="F725" s="22"/>
     </row>
     <row r="726" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A726">
@@ -23535,7 +23509,7 @@
       <c r="D726" t="s">
         <v>1230</v>
       </c>
-      <c r="F726" s="29"/>
+      <c r="F726" s="22"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A727">
@@ -23550,7 +23524,7 @@
       <c r="D727" t="s">
         <v>1231</v>
       </c>
-      <c r="F727" s="29"/>
+      <c r="F727" s="22"/>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A728">
@@ -23565,7 +23539,7 @@
       <c r="D728" t="s">
         <v>1232</v>
       </c>
-      <c r="F728" s="29"/>
+      <c r="F728" s="22"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A729">
@@ -23580,7 +23554,7 @@
       <c r="D729" t="s">
         <v>1233</v>
       </c>
-      <c r="F729" s="29"/>
+      <c r="F729" s="22"/>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A730">
@@ -23595,7 +23569,7 @@
       <c r="D730" t="s">
         <v>1234</v>
       </c>
-      <c r="F730" s="29"/>
+      <c r="F730" s="22"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A731">
@@ -23610,7 +23584,7 @@
       <c r="D731" t="s">
         <v>1235</v>
       </c>
-      <c r="F731" s="29"/>
+      <c r="F731" s="22"/>
     </row>
     <row r="732" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A732">
@@ -23625,7 +23599,7 @@
       <c r="D732" t="s">
         <v>1236</v>
       </c>
-      <c r="F732" s="29"/>
+      <c r="F732" s="22"/>
     </row>
     <row r="733" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A733">
@@ -23640,7 +23614,7 @@
       <c r="D733" t="s">
         <v>1237</v>
       </c>
-      <c r="F733" s="29"/>
+      <c r="F733" s="22"/>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A734">
@@ -23655,7 +23629,7 @@
       <c r="D734" t="s">
         <v>1238</v>
       </c>
-      <c r="F734" s="29"/>
+      <c r="F734" s="22"/>
     </row>
     <row r="735" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A735">
@@ -23670,7 +23644,7 @@
       <c r="D735" t="s">
         <v>1239</v>
       </c>
-      <c r="F735" s="29"/>
+      <c r="F735" s="22"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A736">
@@ -23685,7 +23659,7 @@
       <c r="D736" t="s">
         <v>1240</v>
       </c>
-      <c r="F736" s="29"/>
+      <c r="F736" s="22"/>
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A737">
@@ -23700,7 +23674,7 @@
       <c r="D737" t="s">
         <v>1241</v>
       </c>
-      <c r="F737" s="29"/>
+      <c r="F737" s="22"/>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A738">
@@ -23715,7 +23689,7 @@
       <c r="D738" t="s">
         <v>1242</v>
       </c>
-      <c r="F738" s="29"/>
+      <c r="F738" s="22"/>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A739">
@@ -23730,7 +23704,7 @@
       <c r="D739" t="s">
         <v>1243</v>
       </c>
-      <c r="F739" s="29"/>
+      <c r="F739" s="22"/>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A740">
@@ -23745,7 +23719,7 @@
       <c r="D740" t="s">
         <v>1244</v>
       </c>
-      <c r="F740" s="29"/>
+      <c r="F740" s="22"/>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A741">
@@ -23760,7 +23734,7 @@
       <c r="D741" t="s">
         <v>1245</v>
       </c>
-      <c r="F741" s="29"/>
+      <c r="F741" s="22"/>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A742">
@@ -23775,7 +23749,7 @@
       <c r="D742" t="s">
         <v>1246</v>
       </c>
-      <c r="F742" s="29"/>
+      <c r="F742" s="22"/>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A743">
@@ -23790,7 +23764,7 @@
       <c r="D743" t="s">
         <v>1247</v>
       </c>
-      <c r="F743" s="29"/>
+      <c r="F743" s="22"/>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A744">
@@ -23805,7 +23779,7 @@
       <c r="D744" t="s">
         <v>1248</v>
       </c>
-      <c r="F744" s="29"/>
+      <c r="F744" s="22"/>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A745">
@@ -23846,7 +23820,7 @@
         <v>1448</v>
       </c>
       <c r="D747" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24238,7 +24212,7 @@
         <v>1546</v>
       </c>
       <c r="D775" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24266,7 +24240,7 @@
         <v>1548</v>
       </c>
       <c r="D777" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.45">
@@ -24742,7 +24716,7 @@
         <v>5097</v>
       </c>
       <c r="D811" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -25218,7 +25192,7 @@
         <v>5197</v>
       </c>
       <c r="D845" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25694,7 +25668,7 @@
         <v>5297</v>
       </c>
       <c r="D879" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.45">
@@ -26800,7 +26774,7 @@
         <v>135</v>
       </c>
       <c r="D958" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -26814,7 +26788,7 @@
         <v>136</v>
       </c>
       <c r="D959" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.45">
@@ -26828,9 +26802,9 @@
         <v>901</v>
       </c>
       <c r="D960" t="s">
-        <v>1455</v>
-      </c>
-      <c r="E960" s="30"/>
+        <v>1453</v>
+      </c>
+      <c r="E960" s="3"/>
     </row>
     <row r="961" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A961">
@@ -26843,9 +26817,9 @@
         <v>902</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>1456</v>
-      </c>
-      <c r="E961" s="30"/>
+        <v>1454</v>
+      </c>
+      <c r="E961" s="3"/>
     </row>
     <row r="962" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A962">
@@ -26858,9 +26832,9 @@
         <v>903</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E962" s="30"/>
+        <v>1455</v>
+      </c>
+      <c r="E962" s="3"/>
     </row>
     <row r="963" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A963">
@@ -26873,9 +26847,9 @@
         <v>904</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1458</v>
-      </c>
-      <c r="E963" s="30"/>
+        <v>1456</v>
+      </c>
+      <c r="E963" s="3"/>
     </row>
     <row r="964" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A964">
@@ -26888,9 +26862,9 @@
         <v>905</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E964" s="30"/>
+        <v>1457</v>
+      </c>
+      <c r="E964" s="3"/>
     </row>
     <row r="965" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A965">
@@ -26903,9 +26877,9 @@
         <v>906</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1460</v>
-      </c>
-      <c r="E965" s="30"/>
+        <v>1458</v>
+      </c>
+      <c r="E965" s="3"/>
     </row>
     <row r="966" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A966">
@@ -26918,9 +26892,9 @@
         <v>907</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1461</v>
-      </c>
-      <c r="E966" s="30"/>
+        <v>1459</v>
+      </c>
+      <c r="E966" s="3"/>
     </row>
     <row r="967" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A967">
@@ -26933,9 +26907,9 @@
         <v>908</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="E967" s="30"/>
+        <v>1460</v>
+      </c>
+      <c r="E967" s="3"/>
     </row>
     <row r="968" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A968">
@@ -26948,9 +26922,9 @@
         <v>909</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E968" s="30"/>
+        <v>1461</v>
+      </c>
+      <c r="E968" s="3"/>
     </row>
     <row r="969" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A969">
@@ -26963,9 +26937,9 @@
         <v>910</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>1464</v>
-      </c>
-      <c r="E969" s="30"/>
+        <v>1462</v>
+      </c>
+      <c r="E969" s="3"/>
     </row>
     <row r="970" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A970">
@@ -26978,9 +26952,9 @@
         <v>911</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1465</v>
-      </c>
-      <c r="E970" s="30"/>
+        <v>1463</v>
+      </c>
+      <c r="E970" s="3"/>
     </row>
     <row r="971" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A971">
@@ -26993,9 +26967,9 @@
         <v>912</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E971" s="30"/>
+        <v>1464</v>
+      </c>
+      <c r="E971" s="3"/>
     </row>
     <row r="972" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A972">
@@ -27008,9 +26982,9 @@
         <v>913</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E972" s="30"/>
+        <v>1465</v>
+      </c>
+      <c r="E972" s="3"/>
     </row>
     <row r="973" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A973">
@@ -27023,9 +26997,9 @@
         <v>914</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E973" s="30"/>
+        <v>1466</v>
+      </c>
+      <c r="E973" s="3"/>
     </row>
     <row r="974" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A974">
@@ -27038,9 +27012,9 @@
         <v>915</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E974" s="30"/>
+        <v>1467</v>
+      </c>
+      <c r="E974" s="3"/>
     </row>
     <row r="975" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A975">
@@ -27053,9 +27027,9 @@
         <v>916</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E975" s="30"/>
+        <v>1468</v>
+      </c>
+      <c r="E975" s="3"/>
     </row>
     <row r="976" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A976">
@@ -27068,9 +27042,9 @@
         <v>917</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E976" s="30"/>
+        <v>1469</v>
+      </c>
+      <c r="E976" s="3"/>
     </row>
     <row r="977" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A977">
@@ -27083,9 +27057,9 @@
         <v>918</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E977" s="30"/>
+        <v>1470</v>
+      </c>
+      <c r="E977" s="3"/>
     </row>
     <row r="978" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A978">
@@ -27098,9 +27072,9 @@
         <v>919</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1473</v>
-      </c>
-      <c r="E978" s="30"/>
+        <v>1471</v>
+      </c>
+      <c r="E978" s="3"/>
     </row>
     <row r="979" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A979">
@@ -27113,9 +27087,9 @@
         <v>920</v>
       </c>
       <c r="D979" t="s">
-        <v>1474</v>
-      </c>
-      <c r="E979" s="30"/>
+        <v>1472</v>
+      </c>
+      <c r="E979" s="3"/>
     </row>
     <row r="980" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A980">
@@ -28262,7 +28236,7 @@
         <v>2</v>
       </c>
       <c r="D1061" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28276,7 +28250,7 @@
         <v>3</v>
       </c>
       <c r="D1062" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
@@ -28662,7 +28636,7 @@
         <v>697</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28688,7 +28662,7 @@
         <v>697</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28714,7 +28688,7 @@
         <v>697</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28740,7 +28714,7 @@
         <v>697</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28766,7 +28740,7 @@
         <v>697</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28792,7 +28766,7 @@
         <v>697</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -28818,7 +28792,7 @@
         <v>697</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -28844,7 +28818,7 @@
         <v>697</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -28870,7 +28844,7 @@
         <v>697</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29594,7 +29568,7 @@
         <v>697</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30432,7 +30406,7 @@
         <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>691</v>
@@ -30458,7 +30432,7 @@
         <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>691</v>
@@ -30588,7 +30562,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>691</v>
@@ -30614,7 +30588,7 @@
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>691</v>
@@ -30640,7 +30614,7 @@
         <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>691</v>
@@ -30666,7 +30640,7 @@
         <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>691</v>
@@ -30692,7 +30666,7 @@
         <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>691</v>
@@ -30718,7 +30692,7 @@
         <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>691</v>
@@ -30744,7 +30718,7 @@
         <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>691</v>
@@ -30770,7 +30744,7 @@
         <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>691</v>
@@ -30796,7 +30770,7 @@
         <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>691</v>
@@ -30848,7 +30822,7 @@
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>691</v>
@@ -30874,7 +30848,7 @@
         <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>691</v>
@@ -30930,7 +30904,7 @@
         <v>697</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -30956,7 +30930,7 @@
         <v>697</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -30982,7 +30956,7 @@
         <v>697</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31072,7 +31046,7 @@
         <v>697</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31098,7 +31072,7 @@
         <v>697</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31124,7 +31098,7 @@
         <v>697</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31196,7 +31170,7 @@
         <v>901</v>
       </c>
       <c r="B107" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C107" s="9">
         <v>1</v>
@@ -31222,7 +31196,7 @@
         <v>902</v>
       </c>
       <c r="B108" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C108" s="9">
         <v>1</v>
@@ -31248,7 +31222,7 @@
         <v>903</v>
       </c>
       <c r="B109" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C109" s="9">
         <v>1</v>
@@ -31274,7 +31248,7 @@
         <v>904</v>
       </c>
       <c r="B110" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C110" s="9">
         <v>1</v>
@@ -31300,7 +31274,7 @@
         <v>905</v>
       </c>
       <c r="B111" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C111" s="9">
         <v>1</v>
@@ -31326,7 +31300,7 @@
         <v>906</v>
       </c>
       <c r="B112" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C112" s="9">
         <v>1</v>
@@ -31352,7 +31326,7 @@
         <v>907</v>
       </c>
       <c r="B113" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="C113" s="9">
         <v>1</v>
@@ -31378,7 +31352,7 @@
         <v>908</v>
       </c>
       <c r="B114" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C114" s="9">
         <v>1</v>
@@ -31404,7 +31378,7 @@
         <v>909</v>
       </c>
       <c r="B115" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C115" s="9">
         <v>1</v>
@@ -31430,7 +31404,7 @@
         <v>910</v>
       </c>
       <c r="B116" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C116" s="9">
         <v>1</v>
@@ -31456,7 +31430,7 @@
         <v>911</v>
       </c>
       <c r="B117" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="C117" s="9">
         <v>1</v>
@@ -31482,7 +31456,7 @@
         <v>912</v>
       </c>
       <c r="B118" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C118" s="9">
         <v>1</v>
@@ -31508,7 +31482,7 @@
         <v>913</v>
       </c>
       <c r="B119" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C119" s="9">
         <v>1</v>
@@ -31534,7 +31508,7 @@
         <v>914</v>
       </c>
       <c r="B120" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C120" s="9">
         <v>1</v>
@@ -31560,7 +31534,7 @@
         <v>915</v>
       </c>
       <c r="B121" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C121" s="9">
         <v>1</v>
@@ -31586,7 +31560,7 @@
         <v>916</v>
       </c>
       <c r="B122" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C122" s="9">
         <v>1</v>
@@ -31612,7 +31586,7 @@
         <v>917</v>
       </c>
       <c r="B123" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C123" s="9">
         <v>1</v>
@@ -31638,7 +31612,7 @@
         <v>918</v>
       </c>
       <c r="B124" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C124" s="9">
         <v>1</v>
@@ -31664,7 +31638,7 @@
         <v>919</v>
       </c>
       <c r="B125" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C125" s="9">
         <v>1</v>
@@ -31690,7 +31664,7 @@
         <v>920</v>
       </c>
       <c r="B126" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C126" s="9">
         <v>1</v>

--- a/LSA Data Dictionary FY2024.xlsx
+++ b/LSA Data Dictionary FY2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://squarepegdata-my.sharepoint.com/personal/molly_squarepegdata_com/Documents/GitHub/LSASampleCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{4C794D6F-E862-4F2C-98E1-131F5B0D33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F98A15-DB00-4B4D-8488-46E407628702}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{4C794D6F-E862-4F2C-98E1-131F5B0D33CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD728D3-5F03-4398-AE95-21B297DE74C1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7455" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
+    <workbookView xWindow="-28920" yWindow="-7455" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B02B7233-7B9E-4318-BE1B-2F97AB3B1B83}"/>
   </bookViews>
   <sheets>
     <sheet name="Files" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3844" uniqueCount="1545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3846" uniqueCount="1546">
   <si>
     <t>File ID</t>
   </si>
@@ -4385,9 +4385,6 @@
     <t>No Reported History of DV</t>
   </si>
   <si>
-    <t>Domestic Violence Survivors not Identified as Currently Fleeing</t>
-  </si>
-  <si>
     <t>Not Chronically Homeless (no missing data)</t>
   </si>
   <si>
@@ -4692,6 +4689,12 @@
   </si>
   <si>
     <t>HIC</t>
+  </si>
+  <si>
+    <t>Domestic Violence Survivors not  Currently Fleeing</t>
+  </si>
+  <si>
+    <t>Domestic Violence Survivors (Unknown if Currently Fleeing)</t>
   </si>
 </sst>
 </file>
@@ -5226,7 +5229,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5291,7 +5294,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>527</v>
@@ -5342,7 +5345,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>527</v>
@@ -5393,7 +5396,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>527</v>
@@ -5410,7 +5413,7 @@
         <v>1065</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>527</v>
@@ -5427,7 +5430,7 @@
         <v>1066</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>527</v>
@@ -5447,10 +5450,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5493,10 +5496,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>1539</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -5617,7 +5620,7 @@
         <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -5643,7 +5646,7 @@
         <v>48</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -5669,7 +5672,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -5695,7 +5698,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -5721,7 +5724,7 @@
         <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -5756,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>1542</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>1543</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -6550,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="J40" s="3">
         <v>1</v>
@@ -6567,7 +6570,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>38</v>
@@ -6579,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="J41" s="3">
         <v>7</v>
@@ -8191,7 +8194,7 @@
         <v>65</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>38</v>
@@ -8203,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J97" s="3">
         <v>2</v>
@@ -8220,7 +8223,7 @@
         <v>66</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>38</v>
@@ -8232,7 +8235,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J98" s="3">
         <v>2</v>
@@ -8313,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="J101" s="3">
         <v>7</v>
@@ -8330,7 +8333,7 @@
         <v>3</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>38</v>
@@ -8342,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="J102" s="3">
         <v>7</v>
@@ -8400,7 +8403,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="J104" s="3">
         <v>2</v>
@@ -9948,7 +9951,7 @@
         <v>59</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>38</v>
@@ -9974,7 +9977,7 @@
         <v>60</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>38</v>
@@ -10499,7 +10502,7 @@
         <v>12</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>38</v>
@@ -10511,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="J178" s="3">
         <v>7</v>
@@ -10829,7 +10832,7 @@
         <v>306</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G190" s="3">
         <v>1</v>
@@ -10908,7 +10911,7 @@
         <v>308</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3">
@@ -10932,7 +10935,7 @@
         <v>309</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3">
@@ -10985,7 +10988,7 @@
         <v>310</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3">
@@ -11060,7 +11063,7 @@
         <v>313</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3">
@@ -11114,7 +11117,7 @@
         <v>315</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3">
@@ -11141,7 +11144,7 @@
         <v>306</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3">
@@ -11165,7 +11168,7 @@
         <v>308</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3">
@@ -11189,7 +11192,7 @@
         <v>316</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3">
@@ -11213,7 +11216,7 @@
         <v>317</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3">
@@ -11552,7 +11555,7 @@
         <v>313</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3">
@@ -11606,7 +11609,7 @@
         <v>315</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3">
@@ -11633,7 +11636,7 @@
         <v>326</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3">
@@ -11657,7 +11660,7 @@
         <v>306</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3">
@@ -11707,7 +11710,7 @@
         <v>327</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G224" s="3">
         <v>1</v>
@@ -11730,7 +11733,7 @@
         <v>328</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G225" s="3">
         <v>1</v>
@@ -11848,7 +11851,7 @@
         <v>313</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G230" s="3">
         <v>1</v>
@@ -11900,7 +11903,7 @@
         <v>315</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G232" s="3">
         <v>0</v>
@@ -11926,7 +11929,7 @@
         <v>331</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G233" s="3">
         <v>0</v>
@@ -11949,7 +11952,7 @@
         <v>306</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G234" s="3">
         <v>0</v>
@@ -11972,7 +11975,7 @@
         <v>332</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G235" s="3">
         <v>0</v>
@@ -11998,7 +12001,7 @@
         <v>333</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G236" s="3">
         <v>0</v>
@@ -12021,7 +12024,7 @@
         <v>334</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G237" s="3">
         <v>1</v>
@@ -12044,7 +12047,7 @@
         <v>335</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G238" s="3">
         <v>1</v>
@@ -12067,7 +12070,7 @@
         <v>336</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G239" s="3">
         <v>1</v>
@@ -12090,7 +12093,7 @@
         <v>337</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G240" s="3">
         <v>1</v>
@@ -12113,7 +12116,7 @@
         <v>338</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G241" s="3">
         <v>0</v>
@@ -12208,7 +12211,7 @@
         <v>313</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G245" s="3">
         <v>1</v>
@@ -12260,7 +12263,7 @@
         <v>315</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G247" s="3">
         <v>0</v>
@@ -12286,7 +12289,7 @@
         <v>340</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G248" s="3">
         <v>0</v>
@@ -12309,7 +12312,7 @@
         <v>306</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G249" s="3">
         <v>0</v>
@@ -12332,7 +12335,7 @@
         <v>332</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="G250" s="3">
         <v>0</v>
@@ -12735,7 +12738,7 @@
         <v>313</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G267" s="3">
         <v>1</v>
@@ -12787,7 +12790,7 @@
         <v>315</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G269" s="3">
         <v>0</v>
@@ -12810,10 +12813,10 @@
         <v>1</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G270" s="3">
         <v>0</v>
@@ -12836,13 +12839,13 @@
         <v>306</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G271" s="3">
         <v>0</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="J271" s="3">
         <v>32</v>
@@ -12980,7 +12983,7 @@
         <v>313</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G277" s="3">
         <v>1</v>
@@ -13032,7 +13035,7 @@
         <v>315</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G279" s="3">
         <v>0</v>
@@ -13058,7 +13061,7 @@
         <v>1069</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G280" s="3">
         <v>0</v>
@@ -13081,7 +13084,7 @@
         <v>306</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G281" s="3">
         <v>0</v>
@@ -13107,7 +13110,7 @@
         <v>1070</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G282" s="3">
         <v>0</v>
@@ -13179,7 +13182,7 @@
         <v>313</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G285" s="3">
         <v>1</v>
@@ -13231,7 +13234,7 @@
         <v>315</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G287" s="3">
         <v>0</v>
@@ -13253,11 +13256,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B52880F-20AD-49BC-9FD8-A02C6FD116A7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:N1082"/>
+  <dimension ref="A1:N1083"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1063" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1083" sqref="D1083"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13320,7 +13323,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -13594,7 +13597,7 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -13608,7 +13611,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -13622,7 +13625,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -13636,7 +13639,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -13650,7 +13653,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -13664,7 +13667,7 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -13678,7 +13681,7 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -13692,7 +13695,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C31">
         <v>12</v>
@@ -13706,7 +13709,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C32">
         <v>13</v>
@@ -13720,7 +13723,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C33">
         <v>14</v>
@@ -13734,7 +13737,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -13748,7 +13751,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C35">
         <v>16</v>
@@ -13762,7 +13765,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C36">
         <v>17</v>
@@ -13776,7 +13779,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C37">
         <v>23</v>
@@ -13790,7 +13793,7 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C38">
         <v>24</v>
@@ -13804,7 +13807,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C39">
         <v>25</v>
@@ -13818,7 +13821,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C40">
         <v>26</v>
@@ -13832,7 +13835,7 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C41">
         <v>27</v>
@@ -13846,7 +13849,7 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C42">
         <v>34</v>
@@ -13860,7 +13863,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C43">
         <v>35</v>
@@ -13874,7 +13877,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C44">
         <v>36</v>
@@ -13888,7 +13891,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C45">
         <v>37</v>
@@ -13902,7 +13905,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -13916,7 +13919,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -13930,7 +13933,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -13944,7 +13947,7 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C49">
         <v>56</v>
@@ -13958,7 +13961,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C50">
         <v>57</v>
@@ -13972,7 +13975,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C51">
         <v>67</v>
@@ -13986,7 +13989,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C52">
         <v>98</v>
@@ -14000,7 +14003,7 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C53">
         <v>99</v>
@@ -14014,7 +14017,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C54">
         <v>123</v>
@@ -14028,7 +14031,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C55">
         <v>124</v>
@@ -14042,7 +14045,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C56">
         <v>125</v>
@@ -14056,7 +14059,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C57">
         <v>126</v>
@@ -14070,7 +14073,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C58">
         <v>127</v>
@@ -14084,7 +14087,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C59">
         <v>134</v>
@@ -14098,7 +14101,7 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C60">
         <v>135</v>
@@ -14112,7 +14115,7 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C61">
         <v>136</v>
@@ -14126,7 +14129,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C62">
         <v>137</v>
@@ -14140,7 +14143,7 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C63">
         <v>145</v>
@@ -14154,7 +14157,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C64">
         <v>146</v>
@@ -14168,7 +14171,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C65">
         <v>147</v>
@@ -14182,7 +14185,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C66">
         <v>156</v>
@@ -14196,7 +14199,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C67">
         <v>157</v>
@@ -14210,7 +14213,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C68">
         <v>167</v>
@@ -14224,7 +14227,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C69">
         <v>234</v>
@@ -14238,7 +14241,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C70">
         <v>235</v>
@@ -14252,7 +14255,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C71">
         <v>236</v>
@@ -14266,7 +14269,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C72">
         <v>237</v>
@@ -14280,7 +14283,7 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C73">
         <v>245</v>
@@ -14294,7 +14297,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C74">
         <v>246</v>
@@ -14308,7 +14311,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C75">
         <v>247</v>
@@ -14322,7 +14325,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C76">
         <v>256</v>
@@ -14336,7 +14339,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C77">
         <v>257</v>
@@ -14350,7 +14353,7 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C78">
         <v>267</v>
@@ -14364,7 +14367,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C79">
         <v>345</v>
@@ -14378,7 +14381,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C80">
         <v>346</v>
@@ -14392,7 +14395,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C81">
         <v>347</v>
@@ -14406,7 +14409,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C82">
         <v>356</v>
@@ -14420,7 +14423,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C83">
         <v>357</v>
@@ -14434,7 +14437,7 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C84">
         <v>367</v>
@@ -14448,7 +14451,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C85">
         <v>456</v>
@@ -14462,7 +14465,7 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C86">
         <v>457</v>
@@ -14476,7 +14479,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C87">
         <v>467</v>
@@ -14490,7 +14493,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C88">
         <v>567</v>
@@ -14504,7 +14507,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C89">
         <v>1234</v>
@@ -14518,7 +14521,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C90">
         <v>1235</v>
@@ -14532,7 +14535,7 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C91">
         <v>1236</v>
@@ -14546,7 +14549,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C92">
         <v>1237</v>
@@ -14560,7 +14563,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C93">
         <v>1245</v>
@@ -14574,7 +14577,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C94">
         <v>1246</v>
@@ -14588,7 +14591,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C95">
         <v>1247</v>
@@ -14602,7 +14605,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C96">
         <v>1256</v>
@@ -14616,7 +14619,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C97">
         <v>1257</v>
@@ -14630,7 +14633,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C98">
         <v>1267</v>
@@ -14644,7 +14647,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C99">
         <v>1345</v>
@@ -14658,7 +14661,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C100">
         <v>1346</v>
@@ -14672,7 +14675,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C101">
         <v>1347</v>
@@ -14686,7 +14689,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C102">
         <v>1356</v>
@@ -14700,7 +14703,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C103">
         <v>1357</v>
@@ -14714,7 +14717,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C104">
         <v>1367</v>
@@ -14728,7 +14731,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C105">
         <v>1456</v>
@@ -14742,7 +14745,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C106">
         <v>1457</v>
@@ -14756,7 +14759,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C107">
         <v>1467</v>
@@ -14770,7 +14773,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C108">
         <v>1567</v>
@@ -14784,7 +14787,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C109">
         <v>2345</v>
@@ -14798,7 +14801,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C110">
         <v>2346</v>
@@ -14812,7 +14815,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C111">
         <v>2347</v>
@@ -14826,7 +14829,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C112">
         <v>2356</v>
@@ -14840,7 +14843,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C113">
         <v>2357</v>
@@ -14854,7 +14857,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C114">
         <v>2367</v>
@@ -14868,7 +14871,7 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C115">
         <v>2456</v>
@@ -14882,7 +14885,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C116">
         <v>2457</v>
@@ -14896,7 +14899,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C117">
         <v>2467</v>
@@ -14910,7 +14913,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C118">
         <v>2567</v>
@@ -14924,7 +14927,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C119">
         <v>3456</v>
@@ -14938,7 +14941,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C120">
         <v>3457</v>
@@ -14952,7 +14955,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C121">
         <v>3467</v>
@@ -14966,7 +14969,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C122">
         <v>3567</v>
@@ -14980,7 +14983,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C123">
         <v>4567</v>
@@ -14994,7 +14997,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C124">
         <v>12345</v>
@@ -15008,7 +15011,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C125">
         <v>12346</v>
@@ -15022,7 +15025,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C126">
         <v>12347</v>
@@ -15036,7 +15039,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C127">
         <v>12356</v>
@@ -15050,7 +15053,7 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C128">
         <v>12357</v>
@@ -15064,7 +15067,7 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C129">
         <v>12367</v>
@@ -15078,7 +15081,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C130">
         <v>12456</v>
@@ -15092,7 +15095,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C131">
         <v>12457</v>
@@ -15106,7 +15109,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C132">
         <v>12467</v>
@@ -15120,7 +15123,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C133">
         <v>12567</v>
@@ -15134,7 +15137,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C134">
         <v>13456</v>
@@ -15148,7 +15151,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C135">
         <v>13457</v>
@@ -15162,7 +15165,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C136">
         <v>13467</v>
@@ -15176,7 +15179,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C137">
         <v>13567</v>
@@ -15190,7 +15193,7 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C138">
         <v>14567</v>
@@ -15204,7 +15207,7 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C139">
         <v>23456</v>
@@ -15218,7 +15221,7 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C140">
         <v>23457</v>
@@ -15232,7 +15235,7 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C141">
         <v>23467</v>
@@ -15246,7 +15249,7 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C142">
         <v>23567</v>
@@ -15260,7 +15263,7 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C143">
         <v>24567</v>
@@ -15274,7 +15277,7 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C144">
         <v>34567</v>
@@ -15288,7 +15291,7 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C145">
         <v>123456</v>
@@ -15302,7 +15305,7 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C146">
         <v>123457</v>
@@ -15316,7 +15319,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C147">
         <v>123467</v>
@@ -15330,7 +15333,7 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C148">
         <v>123567</v>
@@ -15344,7 +15347,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C149">
         <v>124567</v>
@@ -15358,7 +15361,7 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C150">
         <v>134567</v>
@@ -15372,7 +15375,7 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C151">
         <v>234567</v>
@@ -15386,7 +15389,7 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C152">
         <v>1234567</v>
@@ -16176,7 +16179,7 @@
         <v>419</v>
       </c>
       <c r="D208" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.45">
@@ -16190,7 +16193,7 @@
         <v>420</v>
       </c>
       <c r="D209" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.45">
@@ -16218,7 +16221,7 @@
         <v>428</v>
       </c>
       <c r="D211" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.45">
@@ -16232,7 +16235,7 @@
         <v>431</v>
       </c>
       <c r="D212" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.45">
@@ -16246,7 +16249,7 @@
         <v>433</v>
       </c>
       <c r="D213" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.45">
@@ -16260,7 +16263,7 @@
         <v>434</v>
       </c>
       <c r="D214" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.45">
@@ -16274,7 +16277,7 @@
         <v>436</v>
       </c>
       <c r="D215" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.45">
@@ -16288,7 +16291,7 @@
         <v>437</v>
       </c>
       <c r="D216" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.45">
@@ -16302,7 +16305,7 @@
         <v>438</v>
       </c>
       <c r="D217" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.45">
@@ -16316,7 +16319,7 @@
         <v>439</v>
       </c>
       <c r="D218" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.45">
@@ -16330,7 +16333,7 @@
         <v>440</v>
       </c>
       <c r="D219" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.45">
@@ -16652,7 +16655,7 @@
         <v>419</v>
       </c>
       <c r="D242" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.45">
@@ -16666,7 +16669,7 @@
         <v>420</v>
       </c>
       <c r="D243" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.45">
@@ -16736,7 +16739,7 @@
         <v>428</v>
       </c>
       <c r="D248" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.45">
@@ -16750,7 +16753,7 @@
         <v>431</v>
       </c>
       <c r="D249" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.45">
@@ -16764,7 +16767,7 @@
         <v>433</v>
       </c>
       <c r="D250" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.45">
@@ -16778,7 +16781,7 @@
         <v>434</v>
       </c>
       <c r="D251" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.45">
@@ -16792,7 +16795,7 @@
         <v>436</v>
       </c>
       <c r="D252" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.45">
@@ -16806,7 +16809,7 @@
         <v>437</v>
       </c>
       <c r="D253" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.45">
@@ -16820,7 +16823,7 @@
         <v>438</v>
       </c>
       <c r="D254" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.45">
@@ -16834,7 +16837,7 @@
         <v>439</v>
       </c>
       <c r="D255" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.45">
@@ -16848,7 +16851,7 @@
         <v>440</v>
       </c>
       <c r="D256" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.45">
@@ -20922,7 +20925,7 @@
         <v>48</v>
       </c>
       <c r="D547" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.45">
@@ -21604,7 +21607,7 @@
         <v>97</v>
       </c>
       <c r="D595" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="596" spans="1:14" x14ac:dyDescent="0.45">
@@ -22010,7 +22013,7 @@
         <v>1048</v>
       </c>
       <c r="D624" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.45">
@@ -22437,7 +22440,7 @@
         <v>1148</v>
       </c>
       <c r="D653" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.45">
@@ -22894,7 +22897,7 @@
         <v>1248</v>
       </c>
       <c r="D684" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.45">
@@ -23378,7 +23381,7 @@
         <v>1348</v>
       </c>
       <c r="D717" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="718" spans="1:6" x14ac:dyDescent="0.45">
@@ -23820,7 +23823,7 @@
         <v>1448</v>
       </c>
       <c r="D747" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.45">
@@ -24212,7 +24215,7 @@
         <v>1546</v>
       </c>
       <c r="D775" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.45">
@@ -24240,7 +24243,7 @@
         <v>1548</v>
       </c>
       <c r="D777" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.45">
@@ -24716,7 +24719,7 @@
         <v>5097</v>
       </c>
       <c r="D811" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.45">
@@ -25192,7 +25195,7 @@
         <v>5197</v>
       </c>
       <c r="D845" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.45">
@@ -25668,7 +25671,7 @@
         <v>5297</v>
       </c>
       <c r="D879" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.45">
@@ -26774,7 +26777,7 @@
         <v>135</v>
       </c>
       <c r="D958" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="959" spans="1:5" x14ac:dyDescent="0.45">
@@ -26788,7 +26791,7 @@
         <v>136</v>
       </c>
       <c r="D959" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="960" spans="1:5" x14ac:dyDescent="0.45">
@@ -26802,7 +26805,7 @@
         <v>901</v>
       </c>
       <c r="D960" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E960" s="3"/>
     </row>
@@ -26817,7 +26820,7 @@
         <v>902</v>
       </c>
       <c r="D961" s="3" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E961" s="3"/>
     </row>
@@ -26832,7 +26835,7 @@
         <v>903</v>
       </c>
       <c r="D962" s="3" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E962" s="3"/>
     </row>
@@ -26847,7 +26850,7 @@
         <v>904</v>
       </c>
       <c r="D963" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E963" s="3"/>
     </row>
@@ -26862,7 +26865,7 @@
         <v>905</v>
       </c>
       <c r="D964" s="3" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E964" s="3"/>
     </row>
@@ -26877,7 +26880,7 @@
         <v>906</v>
       </c>
       <c r="D965" s="3" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E965" s="3"/>
     </row>
@@ -26892,7 +26895,7 @@
         <v>907</v>
       </c>
       <c r="D966" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E966" s="3"/>
     </row>
@@ -26907,7 +26910,7 @@
         <v>908</v>
       </c>
       <c r="D967" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E967" s="3"/>
     </row>
@@ -26922,7 +26925,7 @@
         <v>909</v>
       </c>
       <c r="D968" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E968" s="3"/>
     </row>
@@ -26937,7 +26940,7 @@
         <v>910</v>
       </c>
       <c r="D969" s="3" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E969" s="3"/>
     </row>
@@ -26952,7 +26955,7 @@
         <v>911</v>
       </c>
       <c r="D970" s="3" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E970" s="3"/>
     </row>
@@ -26967,7 +26970,7 @@
         <v>912</v>
       </c>
       <c r="D971" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E971" s="3"/>
     </row>
@@ -26982,7 +26985,7 @@
         <v>913</v>
       </c>
       <c r="D972" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E972" s="3"/>
     </row>
@@ -26997,7 +27000,7 @@
         <v>914</v>
       </c>
       <c r="D973" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E973" s="3"/>
     </row>
@@ -27012,7 +27015,7 @@
         <v>915</v>
       </c>
       <c r="D974" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E974" s="3"/>
     </row>
@@ -27027,7 +27030,7 @@
         <v>916</v>
       </c>
       <c r="D975" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E975" s="3"/>
     </row>
@@ -27042,7 +27045,7 @@
         <v>917</v>
       </c>
       <c r="D976" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E976" s="3"/>
     </row>
@@ -27057,7 +27060,7 @@
         <v>918</v>
       </c>
       <c r="D977" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E977" s="3"/>
     </row>
@@ -27072,7 +27075,7 @@
         <v>919</v>
       </c>
       <c r="D978" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E978" s="3"/>
     </row>
@@ -27087,7 +27090,7 @@
         <v>920</v>
       </c>
       <c r="D979" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E979" s="3"/>
     </row>
@@ -28208,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="D1059" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.45">
@@ -28236,7 +28239,7 @@
         <v>2</v>
       </c>
       <c r="D1061" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.45">
@@ -28250,7 +28253,7 @@
         <v>3</v>
       </c>
       <c r="D1062" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.45">
@@ -28278,7 +28281,7 @@
         <v>5</v>
       </c>
       <c r="D1064" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.45">
@@ -28292,7 +28295,7 @@
         <v>6</v>
       </c>
       <c r="D1065" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.45">
@@ -28306,7 +28309,7 @@
         <v>9</v>
       </c>
       <c r="D1066" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.45">
@@ -28530,7 +28533,21 @@
         <v>2</v>
       </c>
       <c r="D1082" t="s">
-        <v>1442</v>
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1083">
+        <v>48</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1083">
+        <v>3</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1545</v>
       </c>
     </row>
   </sheetData>
@@ -28636,7 +28653,7 @@
         <v>697</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -28662,7 +28679,7 @@
         <v>697</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -28688,7 +28705,7 @@
         <v>697</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -28714,7 +28731,7 @@
         <v>697</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -28740,7 +28757,7 @@
         <v>697</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -28766,7 +28783,7 @@
         <v>697</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -28792,7 +28809,7 @@
         <v>697</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -28818,7 +28835,7 @@
         <v>697</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -28844,7 +28861,7 @@
         <v>697</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -29568,7 +29585,7 @@
         <v>697</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -30406,7 +30423,7 @@
         <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>691</v>
@@ -30432,7 +30449,7 @@
         <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>691</v>
@@ -30562,7 +30579,7 @@
         <v>125</v>
       </c>
       <c r="B82" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>691</v>
@@ -30588,7 +30605,7 @@
         <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>691</v>
@@ -30614,7 +30631,7 @@
         <v>127</v>
       </c>
       <c r="B84" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>691</v>
@@ -30640,7 +30657,7 @@
         <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>691</v>
@@ -30666,7 +30683,7 @@
         <v>129</v>
       </c>
       <c r="B86" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>691</v>
@@ -30692,7 +30709,7 @@
         <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>691</v>
@@ -30718,7 +30735,7 @@
         <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>691</v>
@@ -30744,7 +30761,7 @@
         <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>691</v>
@@ -30770,7 +30787,7 @@
         <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>691</v>
@@ -30822,7 +30839,7 @@
         <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>691</v>
@@ -30848,7 +30865,7 @@
         <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="C93" s="9" t="s">
         <v>691</v>
@@ -30904,7 +30921,7 @@
         <v>697</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -30930,7 +30947,7 @@
         <v>697</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -30956,7 +30973,7 @@
         <v>697</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -31046,7 +31063,7 @@
         <v>697</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -31072,7 +31089,7 @@
         <v>697</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -31098,7 +31115,7 @@
         <v>697</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -31170,7 +31187,7 @@
         <v>901</v>
       </c>
       <c r="B107" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C107" s="9">
         <v>1</v>
@@ -31196,7 +31213,7 @@
         <v>902</v>
       </c>
       <c r="B108" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C108" s="9">
         <v>1</v>
@@ -31222,7 +31239,7 @@
         <v>903</v>
       </c>
       <c r="B109" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C109" s="9">
         <v>1</v>
@@ -31248,7 +31265,7 @@
         <v>904</v>
       </c>
       <c r="B110" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C110" s="9">
         <v>1</v>
@@ -31274,7 +31291,7 @@
         <v>905</v>
       </c>
       <c r="B111" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="C111" s="9">
         <v>1</v>
@@ -31300,7 +31317,7 @@
         <v>906</v>
       </c>
       <c r="B112" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="C112" s="9">
         <v>1</v>
@@ -31326,7 +31343,7 @@
         <v>907</v>
       </c>
       <c r="B113" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C113" s="9">
         <v>1</v>
@@ -31352,7 +31369,7 @@
         <v>908</v>
       </c>
       <c r="B114" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C114" s="9">
         <v>1</v>
@@ -31378,7 +31395,7 @@
         <v>909</v>
       </c>
       <c r="B115" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="C115" s="9">
         <v>1</v>
@@ -31404,7 +31421,7 @@
         <v>910</v>
       </c>
       <c r="B116" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C116" s="9">
         <v>1</v>
@@ -31430,7 +31447,7 @@
         <v>911</v>
       </c>
       <c r="B117" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C117" s="9">
         <v>1</v>
@@ -31456,7 +31473,7 @@
         <v>912</v>
       </c>
       <c r="B118" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C118" s="9">
         <v>1</v>
@@ -31482,7 +31499,7 @@
         <v>913</v>
       </c>
       <c r="B119" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C119" s="9">
         <v>1</v>
@@ -31508,7 +31525,7 @@
         <v>914</v>
       </c>
       <c r="B120" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C120" s="9">
         <v>1</v>
@@ -31534,7 +31551,7 @@
         <v>915</v>
       </c>
       <c r="B121" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C121" s="9">
         <v>1</v>
@@ -31560,7 +31577,7 @@
         <v>916</v>
       </c>
       <c r="B122" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C122" s="9">
         <v>1</v>
@@ -31586,7 +31603,7 @@
         <v>917</v>
       </c>
       <c r="B123" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C123" s="9">
         <v>1</v>
@@ -31612,7 +31629,7 @@
         <v>918</v>
       </c>
       <c r="B124" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C124" s="9">
         <v>1</v>
@@ -31638,7 +31655,7 @@
         <v>919</v>
       </c>
       <c r="B125" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C125" s="9">
         <v>1</v>
@@ -31664,7 +31681,7 @@
         <v>920</v>
       </c>
       <c r="B126" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C126" s="9">
         <v>1</v>
